--- a/Tutoriales/Diccionario WWImporters.xlsx
+++ b/Tutoriales/Diccionario WWImporters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_7833ACEE00002F2C7B89A69961B90F8E02E2B930" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16F510A-472C-47DA-A530-FE7DAED3409F}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_7833ACEE00002F2C7B89A69961B90F8E02E2B930" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61758363-0C07-4FA7-986E-B73548B9C6CD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,10 +969,10 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
